--- a/BalanceSheet/EMN_bal.xlsx
+++ b/BalanceSheet/EMN_bal.xlsx
@@ -513,19 +513,19 @@
         </is>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-25000000.0</v>
+        <v>1379000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>95000000.0</v>
+        <v>1338000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>239000000.0</v>
+        <v>1419000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-18000000.0</v>
+        <v>1659000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>42000000.0</v>
+        <v>1662000000.0</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>1695000000.0</v>
@@ -1881,19 +1881,19 @@
         </is>
       </c>
       <c r="C14" s="0" t="n">
-        <v>113000000.0</v>
+        <v>799000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>130000000.0</v>
+        <v>663000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>-239000000.0</v>
+        <v>525000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>-104000000.0</v>
+        <v>770000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>156000000.0</v>
+        <v>890000000.0</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>1438000000.0</v>
@@ -2791,19 +2791,19 @@
         </is>
       </c>
       <c r="C20" s="0" t="n">
-        <v>-97000000.0</v>
+        <v>848000000.0</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>-25000000.0</v>
+        <v>928000000.0</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>-1000000.0</v>
+        <v>932000000.0</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>12000000.0</v>
+        <v>924000000.0</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>10000000.0</v>
+        <v>849000000.0</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>887000000.0</v>
